--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586224.1327769582</v>
+        <v>-588111.71429336</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>157.5080301469849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>69.73761607747343</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.16013205738677</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>165.2783941995638</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>388.1094095496119</v>
+        <v>88.79961506820023</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>155.4526127311943</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>176.8851968579607</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>165.5528448095107</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>155.8860385675342</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>234.2559520454602</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>24.93303918185057</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>64.34190763938386</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>79.5471631421417</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>140.0424879565122</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>89.29880980927874</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>127.8193552768835</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>139.153727875004</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.92062093109564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>71.02824844153909</v>
+        <v>185.0314030821033</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>10.45074535274122</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
         <v>91.23070601801192</v>
@@ -2965,7 +2965,7 @@
         <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>55.21598883571473</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.624098665123407</v>
       </c>
       <c r="S31" t="n">
         <v>142.717553355046</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1504.400259589023</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1023.009522332977</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1023.009522332977</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1023.009522332977</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1504.400259589023</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.388532134052</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X4" t="n">
-        <v>561.1811112775821</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.388532134052</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1207.668958723993</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C5" t="n">
-        <v>838.7064417835818</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D5" t="n">
-        <v>838.7064417835818</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="E5" t="n">
-        <v>452.9181891853376</v>
+        <v>554.6254674869419</v>
       </c>
       <c r="F5" t="n">
-        <v>445.9726884361341</v>
+        <v>143.6395626973344</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304456</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.808290699805</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1207.668958723993</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4653,40 +4653,40 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>571.1061430638139</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1196.778435292678</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626914</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.3782753568</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.3782753568</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.3782753568</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750364</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750364</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750364</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380758</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,37 +5051,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>607.4265777132409</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>438.490394785334</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>438.490394785334</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>290.5773012029406</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687011</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687011</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687011</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>1009.867621687011</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>789.0750425434807</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1418.565600717355</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.881112511468</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>874.4639424745077</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>874.4639424745077</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822455</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602853</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.8045051785809</v>
+        <v>238.6741500022173</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>238.6741500022173</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>930.2455491523508</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>930.2455491523508</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4529700088207</v>
+        <v>420.322614832457</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>498.9056400965593</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.4441907482616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>376.4441907482616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>226.3275513359258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>226.3275513359258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>226.3275513359257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X22" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525846</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246777</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="D25" t="n">
-        <v>247.635099912342</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="E25" t="n">
-        <v>247.635099912342</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="F25" t="n">
-        <v>247.635099912342</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="G25" t="n">
-        <v>247.635099912342</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,13 +6163,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
@@ -6178,19 +6178,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>755.1831334811263</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X25" t="n">
-        <v>781.5895395384766</v>
+        <v>237.7764125461484</v>
       </c>
       <c r="Y25" t="n">
-        <v>748.3363870828243</v>
+        <v>237.7764125461484</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>861.490963332889</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>692.5547804049821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>542.4381409926464</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102533</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1116.175451538776</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.175451538776</v>
+        <v>822.967214533373</v>
       </c>
       <c r="V28" t="n">
-        <v>861.490963332889</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W28" t="n">
-        <v>861.490963332889</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>861.490963332889</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>861.490963332889</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6470,16 +6470,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>154.3878371814099</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>667.0753537276714</v>
+        <v>656.2176762508379</v>
       </c>
       <c r="C31" t="n">
-        <v>553.9000360811355</v>
+        <v>543.042358604302</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440231</v>
+        <v>448.6865844733372</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430009</v>
+        <v>356.534356172315</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>265.4052739557758</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569674</v>
@@ -6622,10 +6622,10 @@
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667515</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962057</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1932.465357333729</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1788.306212530653</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1620.281662601529</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1386.913889096459</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1187.990266171942</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386992</v>
+        <v>954.333961416353</v>
       </c>
       <c r="X31" t="n">
-        <v>957.9946671386992</v>
+        <v>782.1052757997066</v>
       </c>
       <c r="Y31" t="n">
-        <v>792.9629532765401</v>
+        <v>782.1052757997066</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7017,22 +7017,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7254,19 +7254,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433114</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7394,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093289</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>29.47535963978214</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>286.5092576192343</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>182.0340742867951</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.8380490462287</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.8724419039332</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>96.03744927814711</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
-        <v>158.8724419039333</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>286.5092576192343</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>444.4889386861661</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.4880088410807</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>161.3677477496533</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>206.6901892564356</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.572985061700194</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>197.2241885273123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>38.6742131864941</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9.760100492532132</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,10 +24418,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.6640324209991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>150.5193126168502</v>
+        <v>36.516157976286</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>82.96147103691388</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523554</v>
+        <v>51.13699711011213</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1174922.540122537</v>
+        <v>1174922.540122536</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1174922.540122537</v>
+        <v>1174922.540122536</v>
       </c>
     </row>
     <row r="9">
@@ -26320,31 +26320,31 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
+        <v>215065.9828557398</v>
+      </c>
+      <c r="F2" t="n">
         <v>215065.9828557399</v>
       </c>
-      <c r="F2" t="n">
-        <v>215065.9828557398</v>
-      </c>
       <c r="G2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557398</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
-        <v>223752.1755398985</v>
+        <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284581</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26445,10 +26445,10 @@
         <v>40339.23010106733</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
@@ -26457,7 +26457,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-612673.3383518003</v>
+        <v>-612673.3383518002</v>
       </c>
       <c r="C6" t="n">
-        <v>-22705.45913725578</v>
+        <v>-22705.45913725579</v>
       </c>
       <c r="D6" t="n">
         <v>-22705.45913725588</v>
       </c>
       <c r="E6" t="n">
-        <v>-424255.9871567434</v>
+        <v>-424353.4462827159</v>
       </c>
       <c r="F6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941803</v>
       </c>
       <c r="G6" t="n">
-        <v>100904.0493201524</v>
+        <v>100806.5901941804</v>
       </c>
       <c r="H6" t="n">
-        <v>100904.0493201524</v>
+        <v>100806.5901941803</v>
       </c>
       <c r="I6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941802</v>
       </c>
       <c r="J6" t="n">
-        <v>-75519.16987244043</v>
+        <v>-75616.62899841239</v>
       </c>
       <c r="K6" t="n">
-        <v>42622.13160576252</v>
+        <v>42603.63786782822</v>
       </c>
       <c r="L6" t="n">
-        <v>73135.0792635948</v>
+        <v>73135.07926359485</v>
       </c>
       <c r="M6" t="n">
-        <v>-51323.02916937558</v>
+        <v>-51323.02916937564</v>
       </c>
       <c r="N6" t="n">
         <v>83477.98606446157</v>
       </c>
       <c r="O6" t="n">
-        <v>83477.98606446151</v>
+        <v>83477.9860644615</v>
       </c>
       <c r="P6" t="n">
-        <v>39315.38076161568</v>
+        <v>39315.38076161573</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108339</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>207.7648616240226</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>337.138429664238</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>147.0866890412411</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>60.43126118947333</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25.67476047118311</v>
+        <v>324.9845549525947</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,19 +27664,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>69.58249272688994</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>188.3876949130468</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>241.3232009322007</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>11.42376369151668</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>52.02592219651748</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056017</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>493.602672550759</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,10 +36686,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>464.3977765279033</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>57.74822800113536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>365.9658568354579</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37385,25 +37385,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>406.4618263286133</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37622,10 +37622,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
-        <v>365.9658568354579</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>568.8729598603425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>777.6835120841789</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
